--- a/similarities/split_global/harmonic_similarity_timestamps_102.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_102.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,686 +484,734 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_92</t>
+          <t>schubert-winterreise_118</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jaah_7</t>
+          <t>schubert-winterreise_77</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['B:7', 'E:7', 'A']]</t>
+          <t>['B:hdim7/D', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb:7', 'Eb']]</t>
+          <t>['G:hdim7/A#', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:22.622607', '0:00:29.751133')]</t>
+          <t>('0:00:12.620000', '0:00:18.800000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:27.250000', '0:00:30.810000')]</t>
+          <t>('0:00:23.180000', '0:00:30.140000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-92#t=22.622607']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-118#t=12.62</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-7#t=27.25']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-77#t=23.18</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:7HTH1ppjkkOe7RLoBDKXYJ</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_104</t>
+          <t>schubert-winterreise_118</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_207</t>
+          <t>schubert-winterreise_174</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>['A:min/E', 'E:(3,5,b7,b9)', 'A:min']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>['A#:min', 'F:(3,5,b7,b9)/A#', 'A#:min']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:00.240000', '0:00:09.280000')]</t>
+          <t>('0:01:00.820000', '0:01:06.820000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:06.980000', '0:00:21.920000')]</t>
+          <t>('0:00:32.480000', '0:00:45.820000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-104#t=0.24']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-118#t=60.82</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-207#t=6.98']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-174#t=32.48</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jaah_52</t>
+          <t>schubert-winterreise_134</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_148</t>
+          <t>schubert-winterreise_112</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'C:7', 'F']]</t>
+          <t>['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['D#:maj', 'G#:maj', 'D#:maj', 'G#:maj']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:49.610000', '0:00:59.750000')]</t>
+          <t>('0:02:22.140000', '0:02:27.860000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:12.580000', '0:00:26.260000')]</t>
+          <t>('0:01:58.400000', '0:02:02.040000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=49.61']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-134#t=142.14</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-148#t=12.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=118.4</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_193</t>
+          <t>schubert-winterreise_200</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jaah_6</t>
+          <t>jaah_39</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:04:11.500000', '0:04:17.660000')]</t>
+          <t>('0:00:24.280000', '0:00:51.080000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:14.300000', '0:00:15.210000')]</t>
+          <t>('0:00:32.080000', '0:00:45.580000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=251.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=24.28</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-6#t=14.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=32.08</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_214</t>
+          <t>schubert-winterreise_200</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_141</t>
+          <t>schubert-winterreise_86</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:03.260000', '0:00:20.100000')]</t>
+          <t>('0:00:24.280000', '0:00:44.360000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:01:08.660000', '0:01:23.380000')]</t>
+          <t>('0:00:16.240000', '0:00:24.340000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-214#t=3.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=24.28</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=68.66']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-86#t=16.24</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_73</t>
+          <t>isophonics_45</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_69</t>
+          <t>isophonics_159</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['G:min7', 'F/3', 'Bb']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['B:min7', 'A', 'D/5']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:01:05.200000', '0:01:07.500000')]</t>
+          <t>('0:01:01.592000', '0:01:04.473000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:22.125076', '0:00:36.625937')]</t>
+          <t>('0:00:17.058000', '0:00:21.387000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-73#t=65.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-45#t=61.592</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-69#t=22.125076']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=17.058</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_179</t>
+          <t>jaah_23</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
+          <t>isophonics_77</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7/E', 'F:maj']]</t>
+          <t>['Bb', 'Ab', 'Bb']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>['E', 'D:maj/2', 'E']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:37.840000', '0:00:42.820000')]</t>
+          <t>('0:00:00.720000', '0:00:07.990000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:30.020000', '0:00:32.120000')]</t>
+          <t>('0:00:29.073753', '0:00:52.293707')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-179#t=37.84']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-23#t=0.72</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-176#t=30.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-77#t=29.073753</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>jaah_67</t>
+          <t>isophonics_165</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>schubert-winterreise_65</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['G:min7', 'C:7', 'F', 'C:7']]</t>
+          <t>['A', 'D', 'A', 'D', 'A']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['A:min7/C', 'D:7', 'G:maj', 'D:7/C']]</t>
+          <t>['D#:maj', 'G#:maj', 'D#:maj', 'G#:maj', 'D#:maj']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:22.680000', '0:00:27')]</t>
+          <t>('0:00:03.599751', '0:00:08.760294')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:01:05.760000', '0:01:14.480000')]</t>
+          <t>('0:02:07.600000', '0:02:13.760000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-67#t=22.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-165#t=3.599751</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=65.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=127.6</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_60</t>
+          <t>schubert-winterreise_97</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_144</t>
+          <t>isophonics_204</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:39.300000', '0:00:59.820000')]</t>
+          <t>('0:01:09.360000', '0:01:13.200000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:00.220000', '0:00:07.720000')]</t>
+          <t>('0:00:33.698526', '0:00:42.916848')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-60#t=39.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-97#t=69.36</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-144#t=0.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-204#t=33.698526</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_97</t>
+          <t>isophonics_53</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_153</t>
+          <t>schubert-winterreise_171</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['E:7', 'A', 'E', 'A']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['C#:7', 'F#:maj', 'C#:maj', 'F#:maj']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:01:09.360000', '0:01:13.200000')]</t>
+          <t>('0:00:03.509000', '0:00:13.840000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:58.400000', '0:01:00.680000')]</t>
+          <t>('0:00:45.820000', '0:00:49.080000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-97#t=69.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=3.509</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=58.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=45.82</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_3</t>
+          <t>schubert-winterreise_195</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jaah_69</t>
+          <t>schubert-winterreise_49</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['C#:maj', 'G#:7', 'C#:maj']]</t>
+          <t>['F:min/C', 'C', 'F:min/C']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['A:min', 'E:maj/G#', 'A:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:00.480000', '0:00:08.480000')]</t>
+          <t>('0:00:44.160000', '0:00:48.160000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:33.480000', '0:00:45.590000')]</t>
+          <t>('0:00:10.760000', '0:00:16.080000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-3#t=0.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-195#t=44.16</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-69#t=33.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-49#t=10.76</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_14</t>
+          <t>isophonics_160</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jaah_52</t>
+          <t>jaah_83</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['Ab:maj', 'Bb:7', 'Eb:7', 'Ab:maj']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['F', 'Bb', 'F']]</t>
+          <t>['G', 'A:7', 'D:7', 'G']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:01:23.340000', '0:01:27.640000')]</t>
+          <t>('0:02:06.605000', '0:02:10.738000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:01:02.530000', '0:01:09.910000')]</t>
+          <t>('0:00:00.560000', '0:00:11.630000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-14#t=83.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-160#t=126.605</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=62.53']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-83#t=0.56</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_78</t>
+          <t>schubert-winterreise_211</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_279</t>
+          <t>schubert-winterreise_158</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['D', 'E', 'A', 'E']]</t>
+          <t>['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['F:maj', 'G', 'C:maj', 'G:maj']]</t>
+          <t>['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:31.759659', '0:00:37.738798')]</t>
+          <t>('0:00:01', '0:00:07.820000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:32.808000', '0:00:37.075000')]</t>
+          <t>('0:00:10.260000', '0:00:21.600000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-78#t=31.759659']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-211#t=1.0</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=32.808']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-158#t=10.26</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_211</t>
+          <t>isophonics_2</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_75</t>
+          <t>schubert-winterreise_90</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
+          <t>['Bb:maj', 'Eb:maj', 'Bb:maj', 'Eb:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:00.240000', '0:00:07.820000')]</t>
+          <t>('0:03:37.493000', '0:03:42.528000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:47.060000', '0:00:59.980000')]</t>
+          <t>('0:02:34.760000', '0:02:40.980000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-211#t=0.24']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-2#t=217.493</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-75#t=47.06']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-90#t=154.76</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
+          <t>schubert-winterreise_168</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>schubert-winterreise_59</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>['A#:min', 'F:maj', 'A#:min']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
+          <t>['E:min', 'B:maj', 'E:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:10.220000', '0:00:26.460000')]</t>
+          <t>('0:00:11.700000', '0:00:20.020000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:00.560000', '0:00:08.680000')]</t>
+          <t>('0:01:29.080000', '0:01:38.100000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-138#t=10.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-168#t=11.7</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=0.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=89.08</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
